--- a/medicion/analisis.xlsx
+++ b/medicion/analisis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haraya/pgms/Prog_ej/medicion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD39D9D-7A8C-1A4F-8C4D-5BB5D49DE4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7FD84A-3072-6D4D-BB14-C7C85C77D65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="3420" windowWidth="28040" windowHeight="17180" xr2:uid="{A5705E59-88E5-C34C-A063-0AAAEB0C4037}"/>
+    <workbookView xWindow="140" yWindow="1120" windowWidth="33720" windowHeight="17180" xr2:uid="{A5705E59-88E5-C34C-A063-0AAAEB0C4037}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Burbuja</t>
   </si>
@@ -54,6 +54,30 @@
   </si>
   <si>
     <t>Aleatorio</t>
+  </si>
+  <si>
+    <t>Insercion</t>
+  </si>
+  <si>
+    <t>Selección</t>
+  </si>
+  <si>
+    <t>45 / 20</t>
+  </si>
+  <si>
+    <t>81 / 20</t>
+  </si>
+  <si>
+    <t>45 / 6</t>
+  </si>
+  <si>
+    <t>45 / 0</t>
+  </si>
+  <si>
+    <t>45 / 45</t>
+  </si>
+  <si>
+    <t>45 / 5</t>
   </si>
 </sst>
 </file>
@@ -69,7 +93,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -100,6 +124,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -165,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -195,6 +237,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -531,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1298BA1C-8C09-5E4B-8434-8C4ED65C86FD}">
-  <dimension ref="A2:G7"/>
+  <dimension ref="A2:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -545,9 +614,10 @@
     <col min="4" max="5" width="9.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.1640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.5" style="1" customWidth="1"/>
+    <col min="8" max="11" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -558,8 +628,16 @@
         <v>3</v>
       </c>
       <c r="G2" s="10"/>
+      <c r="H2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="14"/>
+      <c r="J2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="16"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
@@ -578,13 +656,23 @@
       <c r="G3" s="9" t="s">
         <v>2</v>
       </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>10</v>
       </c>
-      <c r="B4" s="6">
-        <v>81</v>
+      <c r="B4" s="18" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="6">
         <v>81</v>
@@ -592,17 +680,27 @@
       <c r="D4" s="6">
         <v>81</v>
       </c>
-      <c r="E4" s="9">
-        <v>45</v>
-      </c>
-      <c r="F4" s="9">
-        <v>45</v>
-      </c>
-      <c r="G4" s="9">
-        <v>45</v>
+      <c r="E4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>11</v>
       </c>
@@ -624,8 +722,18 @@
       <c r="G5" s="9">
         <v>55</v>
       </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="13">
+        <v>55</v>
+      </c>
+      <c r="J5" s="13">
+        <v>55</v>
+      </c>
+      <c r="K5" s="13">
+        <v>55</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>12</v>
       </c>
@@ -647,8 +755,18 @@
       <c r="G6" s="9">
         <v>66</v>
       </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="13">
+        <v>66</v>
+      </c>
+      <c r="J6" s="13">
+        <v>66</v>
+      </c>
+      <c r="K6" s="13">
+        <v>66</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>13</v>
       </c>
@@ -668,6 +786,16 @@
         <v>78</v>
       </c>
       <c r="G7" s="9">
+        <v>78</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="13">
+        <v>78</v>
+      </c>
+      <c r="J7" s="13">
+        <v>78</v>
+      </c>
+      <c r="K7" s="13">
         <v>78</v>
       </c>
     </row>

--- a/medicion/analisis.xlsx
+++ b/medicion/analisis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haraya/pgms/Prog_ej/medicion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7FD84A-3072-6D4D-BB14-C7C85C77D65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A725BC-FC7D-AA4D-8B06-CD1BE335E124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="1120" windowWidth="33720" windowHeight="17180" xr2:uid="{A5705E59-88E5-C34C-A063-0AAAEB0C4037}"/>
+    <workbookView xWindow="-3980" yWindow="860" windowWidth="40460" windowHeight="17180" xr2:uid="{A5705E59-88E5-C34C-A063-0AAAEB0C4037}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>Burbuja</t>
   </si>
@@ -78,6 +78,21 @@
   </si>
   <si>
     <t>45 / 5</t>
+  </si>
+  <si>
+    <t>9 / 20</t>
+  </si>
+  <si>
+    <t>9 / 0</t>
+  </si>
+  <si>
+    <t>9 / 45</t>
+  </si>
+  <si>
+    <t>10 / 20</t>
+  </si>
+  <si>
+    <t>Shell</t>
   </si>
 </sst>
 </file>
@@ -93,7 +108,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,8 +157,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -203,11 +230,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -236,9 +276,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -248,9 +285,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -264,6 +298,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -600,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1298BA1C-8C09-5E4B-8434-8C4ED65C86FD}">
-  <dimension ref="A2:K7"/>
+  <dimension ref="A2:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -614,10 +672,10 @@
     <col min="4" max="5" width="9.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.1640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.5" style="1" customWidth="1"/>
-    <col min="8" max="11" width="10.83203125" style="1"/>
+    <col min="8" max="16" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -627,17 +685,24 @@
       <c r="F2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="12" t="s">
+      <c r="G2" s="8"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="16"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="24"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
@@ -656,22 +721,39 @@
       <c r="G3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="13" t="s">
+      <c r="H3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="I3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="J3" s="18" t="s">
         <v>2</v>
       </c>
+      <c r="K3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="25" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>10</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="6">
@@ -680,27 +762,38 @@
       <c r="D4" s="6">
         <v>81</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="19" t="s">
+      <c r="H4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="L4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="M4" s="17" t="s">
         <v>13</v>
       </c>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>11</v>
       </c>
@@ -722,18 +815,25 @@
       <c r="G5" s="9">
         <v>55</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="13">
+      <c r="H5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="12">
         <v>55</v>
       </c>
-      <c r="J5" s="13">
+      <c r="L5" s="12">
         <v>55</v>
       </c>
-      <c r="K5" s="13">
+      <c r="M5" s="12">
         <v>55</v>
       </c>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>12</v>
       </c>
@@ -755,18 +855,23 @@
       <c r="G6" s="9">
         <v>66</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="13">
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="12">
         <v>66</v>
       </c>
-      <c r="J6" s="13">
+      <c r="L6" s="12">
         <v>66</v>
       </c>
-      <c r="K6" s="13">
+      <c r="M6" s="12">
         <v>66</v>
       </c>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>13</v>
       </c>
@@ -788,16 +893,21 @@
       <c r="G7" s="9">
         <v>78</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="13">
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="12">
         <v>78</v>
       </c>
-      <c r="J7" s="13">
+      <c r="L7" s="12">
         <v>78</v>
       </c>
-      <c r="K7" s="13">
+      <c r="M7" s="12">
         <v>78</v>
       </c>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/medicion/analisis.xlsx
+++ b/medicion/analisis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haraya/pgms/Prog_ej/medicion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A725BC-FC7D-AA4D-8B06-CD1BE335E124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25516F4-F1CC-C24B-A9F8-0BA592697E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3980" yWindow="860" windowWidth="40460" windowHeight="17180" xr2:uid="{A5705E59-88E5-C34C-A063-0AAAEB0C4037}"/>
+    <workbookView minimized="1" xWindow="760" yWindow="1600" windowWidth="34240" windowHeight="17180" xr2:uid="{A5705E59-88E5-C34C-A063-0AAAEB0C4037}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -658,21 +658,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1298BA1C-8C09-5E4B-8434-8C4ED65C86FD}">
-  <dimension ref="A2:P7"/>
+  <dimension ref="A2:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="1" customWidth="1"/>
-    <col min="8" max="16" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="9.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -909,6 +918,48 @@
       <c r="O7" s="25"/>
       <c r="P7" s="25"/>
     </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E9" s="1">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1">
+        <v>5</v>
+      </c>
+      <c r="K9" s="1">
+        <v>6</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>200000</v>
+      </c>
+      <c r="E10" s="1">
+        <v>48</v>
+      </c>
+      <c r="H10" s="1">
+        <v>14</v>
+      </c>
+      <c r="K10" s="1">
+        <v>20</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>400000</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
